--- a/2. Maxent Output/Cloglog Threshold Average Consolidated.xlsx
+++ b/2. Maxent Output/Cloglog Threshold Average Consolidated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/we24270_bristol_ac_uk/Documents/Documents/2. Course (EMDA)/5. TB2/3. GEOGM0013/2. Summative/7. Maxent Output/2. Attempt 2 (30,000 + 20)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/we24270_bristol_ac_uk/Documents/Documents/2. Course (EMDA)/5. TB2/3. GEOGM0013/2. Summative/4. Model Output/2. Attempt 2 (30,000 + 20)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{C28D0F7F-5EB9-4D65-A665-E80E8EE28DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB7DBFE7-C292-47D8-B02A-1F2F7C4C6A06}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{C28D0F7F-5EB9-4D65-A665-E80E8EE28DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A97E92C-CE2A-441F-A074-74B84A5906A2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8973C092-CFFC-4977-A2B9-D18CAF5628E8}"/>
+    <workbookView xWindow="17910" yWindow="2160" windowWidth="10380" windowHeight="11295" firstSheet="6" activeTab="6" xr2:uid="{8973C092-CFFC-4977-A2B9-D18CAF5628E8}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Modern Climate - EBT" sheetId="3" r:id="rId1"/>
@@ -641,9 +641,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400C4AD4-EE81-4740-BC3B-98809C79DD8A}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1023,6 +1025,11 @@
         <v>0.49085000000000012</v>
       </c>
     </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>0.49085000000000012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1421,9 +1428,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E0B979-93B7-455D-84F7-7A4FE7D118D5}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1547,7 +1556,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D7">
-        <f>D6+1</f>
+        <f t="shared" ref="D7:D25" si="0">D6+1</f>
         <v>2</v>
       </c>
       <c r="F7" t="s">
@@ -1560,7 +1569,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D8">
-        <f>D7+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F8" t="s">
@@ -1573,7 +1582,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D9">
-        <f>D8+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F9" t="s">
@@ -1586,7 +1595,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D10">
-        <f>D9+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F10" t="s">
@@ -1599,7 +1608,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D11">
-        <f>D10+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F11" t="s">
@@ -1612,7 +1621,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D12">
-        <f>D11+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F12" t="s">
@@ -1625,7 +1634,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D13">
-        <f>D12+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F13" t="s">
@@ -1638,7 +1647,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D14">
-        <f>D13+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F14" t="s">
@@ -1651,7 +1660,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D15">
-        <f>D14+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F15" t="s">
@@ -1664,7 +1673,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D16">
-        <f>D15+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F16" t="s">
@@ -1677,7 +1686,7 @@
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17">
-        <f>D16+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F17" t="s">
@@ -1690,7 +1699,7 @@
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18">
-        <f>D17+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F18" t="s">
@@ -1703,7 +1712,7 @@
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19">
-        <f>D18+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F19" t="s">
@@ -1716,7 +1725,7 @@
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D20">
-        <f>D19+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F20" t="s">
@@ -1729,7 +1738,7 @@
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21">
-        <f>D20+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F21" t="s">
@@ -1742,7 +1751,7 @@
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D22">
-        <f>D21+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F22" t="s">
@@ -1755,7 +1764,7 @@
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D23">
-        <f>D22+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F23" t="s">
@@ -1768,7 +1777,7 @@
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D24">
-        <f>D23+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F24" t="s">
@@ -1781,7 +1790,7 @@
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D25">
-        <f>D24+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F25" t="s">
@@ -1801,6 +1810,11 @@
       <c r="I26" s="4">
         <f>AVERAGE(I6:I25)</f>
         <v>0.30369999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>0.30370000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1811,9 +1825,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D329BE-E777-4C46-8CF1-867E13886923}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2193,6 +2209,11 @@
         <v>0.28420000000000001</v>
       </c>
     </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>0.28420000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2201,9 +2222,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540B16E1-91BC-457F-A552-7CDFDC67DAB4}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2583,6 +2606,11 @@
         <v>0.48875000000000002</v>
       </c>
     </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>0.48875000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2981,9 +3009,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0376D5F1-38F0-47C9-B069-E0C7C6E150AC}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3363,6 +3393,11 @@
         <v>0.30479999999999996</v>
       </c>
     </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>0.30480000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3371,9 +3406,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0F4EA7-1EDD-4AE2-838C-F3697C9BBADA}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3753,6 +3790,11 @@
         <v>0.27929999999999999</v>
       </c>
     </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>0.27929999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
